--- a/biology/Zoologie/Dolichopus_incertus/Dolichopus_incertus.xlsx
+++ b/biology/Zoologie/Dolichopus_incertus/Dolichopus_incertus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichopus incertus est une espèce fossile d'insectes diptères de la famille des Dolichopodidae.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Dolichopus incertus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2].
-Holotype
-L'holotype et échantillon R1003, de l'ère Cénozoïque, et de l'époque Oligocène supérieur ou Rupélien (33,9 à 28,1 Ma) de la collection Mieg, et conservée au Musée d'histoire naturelle de Bâle vient du gisement de Kleinkembs en Bade-Wurtemberg, sur la rive droite du Rhin[1],[2].
-Étymologie
-L'épithète spécifique latine incertus signifie « incertain »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Dolichopus incertus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,.
 </t>
         </is>
       </c>
@@ -543,18 +553,169 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Holotype</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype et échantillon R1003, de l'ère Cénozoïque, et de l'époque Oligocène supérieur ou Rupélien (33,9 à 28,1 Ma) de la collection Mieg, et conservée au Musée d'histoire naturelle de Bâle vient du gisement de Kleinkembs en Bade-Wurtemberg, sur la rive droite du Rhin,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dolichopus_incertus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopus_incertus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine incertus signifie « incertain »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dolichopus_incertus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopus_incertus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte couché sur le côté, tête et thorax noir-brun, abdomen brunâtre, le dernier segment noir, pattes brunes sauf les fémurs II qui sont noirs. Tête subtriangulaire, plus haute que longue ; vertex renflé au dessus des yeux, front vertical ; yeux presque sphériques, touchant la ligne antérieur du front ; antennes insérées au-dessus des yeux. Thorax renflé sur le dos. Abdomen à six segments plus hauts que longs, le dernier segment porte le cloaque muni de quelques cils courts ; profil dorsal bombé. Pattes fortes, pattes I courtes ; pattes II avec fémur renflé, tibia allongé portant deux rangées de cils noirs ; pattes III beaucoup plus longues que les précédentes, fémurs renflés avec quelques cils courts, tibias allongés, portent des cils irrégulièrement répartis sur toute la longueur et une couronne de quatre à six cils apicaux ; tarse grêle de cinq articles de plus en plus courts portant chacun trois ou quatre cils apicaux. »[1].
-Dimensions
-La longueur du corps est de 5,25 mm, la tête a une longueur de 0,75 mm, le thorax a une longueur de 1,5 mm, l'abdomen a une longueur de 3 mm[1].
-Affinités
-« Les antennes et les ailes manquent, aussi ne peut-on faire une détermination rigoureuse. Le métatarse postérieur est cilié comme dans le g. Dolichopus. »[1].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte couché sur le côté, tête et thorax noir-brun, abdomen brunâtre, le dernier segment noir, pattes brunes sauf les fémurs II qui sont noirs. Tête subtriangulaire, plus haute que longue ; vertex renflé au dessus des yeux, front vertical ; yeux presque sphériques, touchant la ligne antérieur du front ; antennes insérées au-dessus des yeux. Thorax renflé sur le dos. Abdomen à six segments plus hauts que longs, le dernier segment porte le cloaque muni de quelques cils courts ; profil dorsal bombé. Pattes fortes, pattes I courtes ; pattes II avec fémur renflé, tibia allongé portant deux rangées de cils noirs ; pattes III beaucoup plus longues que les précédentes, fémurs renflés avec quelques cils courts, tibias allongés, portent des cils irrégulièrement répartis sur toute la longueur et une couronne de quatre à six cils apicaux ; tarse grêle de cinq articles de plus en plus courts portant chacun trois ou quatre cils apicaux. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dolichopus_incertus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopus_incertus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 5,25 mm, la tête a une longueur de 0,75 mm, le thorax a une longueur de 1,5 mm, l'abdomen a une longueur de 3 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dolichopus_incertus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dolichopus_incertus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Les antennes et les ailes manquent, aussi ne peut-on faire une détermination rigoureuse. Le métatarse postérieur est cilié comme dans le g. Dolichopus. ».
 </t>
         </is>
       </c>
